--- a/LF/TAS/Burkina Faso/xls/tas_results_sth.xlsx
+++ b/LF/TAS/Burkina Faso/xls/tas_results_sth.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\LF\TAS\Burkina Faso\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{52911159-DA09-4482-B5BA-9D693C01A7F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F679253D-05D1-4113-A748-0EBCCA1EB776}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -936,9 +936,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1366,7 +1366,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="7" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="B21" s="18" t="s">
         <v>80</v>
